--- a/sequences/09_retrieval_2.xlsx
+++ b/sequences/09_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -2052,6 +2076,30 @@
       <c r="F7" t="s">
         <v>205</v>
       </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2160,6 +2208,30 @@
       <c r="F10" t="s">
         <v>205</v>
       </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2268,6 +2340,30 @@
       <c r="F13" t="s">
         <v>205</v>
       </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2288,6 +2384,30 @@
       <c r="F14" t="s">
         <v>205</v>
       </c>
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2396,6 +2516,30 @@
       <c r="F17" t="s">
         <v>205</v>
       </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2460,6 +2604,30 @@
       <c r="F19" t="s">
         <v>205</v>
       </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2612,6 +2780,30 @@
       <c r="F23" t="s">
         <v>205</v>
       </c>
+      <c r="G23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2676,6 +2868,30 @@
       <c r="F25" t="s">
         <v>205</v>
       </c>
+      <c r="G25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="s">
+        <v>205</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3068,6 +3308,30 @@
       <c r="F35" t="s">
         <v>205</v>
       </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3132,6 +3396,30 @@
       <c r="F37" t="s">
         <v>205</v>
       </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3152,6 +3440,30 @@
       <c r="F38" t="s">
         <v>205</v>
       </c>
+      <c r="G38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N38" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3392,6 +3704,30 @@
       <c r="F44" t="s">
         <v>205</v>
       </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" t="s">
+        <v>205</v>
+      </c>
+      <c r="K44" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44" t="s">
+        <v>205</v>
+      </c>
+      <c r="N44" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3412,6 +3748,30 @@
       <c r="F45" t="s">
         <v>205</v>
       </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K45" t="s">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N45" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3652,6 +4012,30 @@
       <c r="F51" t="s">
         <v>205</v>
       </c>
+      <c r="G51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" t="s">
+        <v>205</v>
+      </c>
+      <c r="J51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K51" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" t="s">
+        <v>205</v>
+      </c>
+      <c r="M51" t="s">
+        <v>205</v>
+      </c>
+      <c r="N51" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3716,6 +4100,30 @@
       <c r="F53" t="s">
         <v>205</v>
       </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N53" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3780,6 +4188,30 @@
       <c r="F55" t="s">
         <v>205</v>
       </c>
+      <c r="G55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" t="s">
+        <v>205</v>
+      </c>
+      <c r="K55" t="s">
+        <v>205</v>
+      </c>
+      <c r="L55" t="s">
+        <v>205</v>
+      </c>
+      <c r="M55" t="s">
+        <v>205</v>
+      </c>
+      <c r="N55" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3800,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3908,6 +4364,30 @@
       <c r="F59" t="s">
         <v>205</v>
       </c>
+      <c r="G59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K59" t="s">
+        <v>205</v>
+      </c>
+      <c r="L59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4148,6 +4628,30 @@
       <c r="F65" t="s">
         <v>205</v>
       </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4344,6 +4848,30 @@
       <c r="F70" t="s">
         <v>205</v>
       </c>
+      <c r="G70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" t="s">
+        <v>205</v>
+      </c>
+      <c r="I70" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" t="s">
+        <v>205</v>
+      </c>
+      <c r="K70" t="s">
+        <v>205</v>
+      </c>
+      <c r="L70" t="s">
+        <v>205</v>
+      </c>
+      <c r="M70" t="s">
+        <v>205</v>
+      </c>
+      <c r="N70" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4364,6 +4892,30 @@
       <c r="F71" t="s">
         <v>205</v>
       </c>
+      <c r="G71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" t="s">
+        <v>205</v>
+      </c>
+      <c r="I71" t="s">
+        <v>205</v>
+      </c>
+      <c r="J71" t="s">
+        <v>205</v>
+      </c>
+      <c r="K71" t="s">
+        <v>205</v>
+      </c>
+      <c r="L71" t="s">
+        <v>205</v>
+      </c>
+      <c r="M71" t="s">
+        <v>205</v>
+      </c>
+      <c r="N71" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4648,6 +5200,30 @@
       <c r="F78" t="s">
         <v>205</v>
       </c>
+      <c r="G78" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" t="s">
+        <v>205</v>
+      </c>
+      <c r="K78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78" t="s">
+        <v>205</v>
+      </c>
+      <c r="N78" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4668,6 +5244,30 @@
       <c r="F79" t="s">
         <v>205</v>
       </c>
+      <c r="G79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" t="s">
+        <v>205</v>
+      </c>
+      <c r="K79" t="s">
+        <v>205</v>
+      </c>
+      <c r="L79" t="s">
+        <v>205</v>
+      </c>
+      <c r="M79" t="s">
+        <v>205</v>
+      </c>
+      <c r="N79" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4908,6 +5508,30 @@
       <c r="F85" t="s">
         <v>205</v>
       </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L85" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4972,6 +5596,30 @@
       <c r="F87" t="s">
         <v>205</v>
       </c>
+      <c r="G87" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" t="s">
+        <v>205</v>
+      </c>
+      <c r="I87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" t="s">
+        <v>205</v>
+      </c>
+      <c r="K87" t="s">
+        <v>205</v>
+      </c>
+      <c r="L87" t="s">
+        <v>205</v>
+      </c>
+      <c r="M87" t="s">
+        <v>205</v>
+      </c>
+      <c r="N87" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -5124,6 +5772,30 @@
       <c r="F91" t="s">
         <v>205</v>
       </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5232,6 +5904,30 @@
       <c r="F94" t="s">
         <v>205</v>
       </c>
+      <c r="G94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" t="s">
+        <v>205</v>
+      </c>
+      <c r="I94" t="s">
+        <v>205</v>
+      </c>
+      <c r="J94" t="s">
+        <v>205</v>
+      </c>
+      <c r="K94" t="s">
+        <v>205</v>
+      </c>
+      <c r="L94" t="s">
+        <v>205</v>
+      </c>
+      <c r="M94" t="s">
+        <v>205</v>
+      </c>
+      <c r="N94" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5340,6 +6036,30 @@
       <c r="F97" t="s">
         <v>205</v>
       </c>
+      <c r="G97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" t="s">
+        <v>205</v>
+      </c>
+      <c r="K97" t="s">
+        <v>205</v>
+      </c>
+      <c r="L97" t="s">
+        <v>205</v>
+      </c>
+      <c r="M97" t="s">
+        <v>205</v>
+      </c>
+      <c r="N97" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5360,6 +6080,30 @@
       <c r="F98" t="s">
         <v>205</v>
       </c>
+      <c r="G98" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" t="s">
+        <v>205</v>
+      </c>
+      <c r="I98" t="s">
+        <v>205</v>
+      </c>
+      <c r="J98" t="s">
+        <v>205</v>
+      </c>
+      <c r="K98" t="s">
+        <v>205</v>
+      </c>
+      <c r="L98" t="s">
+        <v>205</v>
+      </c>
+      <c r="M98" t="s">
+        <v>205</v>
+      </c>
+      <c r="N98" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5556,6 +6300,30 @@
       <c r="F103" t="s">
         <v>205</v>
       </c>
+      <c r="G103" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" t="s">
+        <v>205</v>
+      </c>
+      <c r="I103" t="s">
+        <v>205</v>
+      </c>
+      <c r="J103" t="s">
+        <v>205</v>
+      </c>
+      <c r="K103" t="s">
+        <v>205</v>
+      </c>
+      <c r="L103" t="s">
+        <v>205</v>
+      </c>
+      <c r="M103" t="s">
+        <v>205</v>
+      </c>
+      <c r="N103" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5752,6 +6520,30 @@
       <c r="F108" t="s">
         <v>205</v>
       </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+      <c r="H108" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108" t="s">
+        <v>205</v>
+      </c>
+      <c r="L108" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5816,6 +6608,30 @@
       <c r="F110" t="s">
         <v>205</v>
       </c>
+      <c r="G110" t="s">
+        <v>205</v>
+      </c>
+      <c r="H110" t="s">
+        <v>205</v>
+      </c>
+      <c r="I110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J110" t="s">
+        <v>205</v>
+      </c>
+      <c r="K110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L110" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>205</v>
+      </c>
+      <c r="N110" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5924,6 +6740,30 @@
       <c r="F113" t="s">
         <v>205</v>
       </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I113" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="K113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" t="s">
+        <v>205</v>
+      </c>
+      <c r="N113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -6076,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6140,6 +7004,30 @@
       <c r="F119" t="s">
         <v>205</v>
       </c>
+      <c r="G119" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" t="s">
+        <v>205</v>
+      </c>
+      <c r="J119" t="s">
+        <v>205</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s">
+        <v>205</v>
+      </c>
+      <c r="M119" t="s">
+        <v>205</v>
+      </c>
+      <c r="N119" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6160,6 +7048,30 @@
       <c r="F120" t="s">
         <v>205</v>
       </c>
+      <c r="G120" t="s">
+        <v>205</v>
+      </c>
+      <c r="H120" t="s">
+        <v>205</v>
+      </c>
+      <c r="I120" t="s">
+        <v>205</v>
+      </c>
+      <c r="J120" t="s">
+        <v>205</v>
+      </c>
+      <c r="K120" t="s">
+        <v>205</v>
+      </c>
+      <c r="L120" t="s">
+        <v>205</v>
+      </c>
+      <c r="M120" t="s">
+        <v>205</v>
+      </c>
+      <c r="N120" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6224,6 +7136,30 @@
       <c r="F122" t="s">
         <v>205</v>
       </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" t="s">
+        <v>205</v>
+      </c>
+      <c r="I122" t="s">
+        <v>205</v>
+      </c>
+      <c r="J122" t="s">
+        <v>205</v>
+      </c>
+      <c r="K122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L122" t="s">
+        <v>205</v>
+      </c>
+      <c r="M122" t="s">
+        <v>205</v>
+      </c>
+      <c r="N122" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>205</v>
       </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+      <c r="H123" t="s">
+        <v>205</v>
+      </c>
+      <c r="I123" t="s">
+        <v>205</v>
+      </c>
+      <c r="J123" t="s">
+        <v>205</v>
+      </c>
+      <c r="K123" t="s">
+        <v>205</v>
+      </c>
+      <c r="L123" t="s">
+        <v>205</v>
+      </c>
+      <c r="M123" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6308,6 +7268,30 @@
       <c r="F125" t="s">
         <v>205</v>
       </c>
+      <c r="G125" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I125" t="s">
+        <v>205</v>
+      </c>
+      <c r="J125" t="s">
+        <v>205</v>
+      </c>
+      <c r="K125" t="s">
+        <v>205</v>
+      </c>
+      <c r="L125" t="s">
+        <v>205</v>
+      </c>
+      <c r="M125" t="s">
+        <v>205</v>
+      </c>
+      <c r="N125" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6328,6 +7312,30 @@
       <c r="F126" t="s">
         <v>205</v>
       </c>
+      <c r="G126" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" t="s">
+        <v>205</v>
+      </c>
+      <c r="I126" t="s">
+        <v>205</v>
+      </c>
+      <c r="J126" t="s">
+        <v>205</v>
+      </c>
+      <c r="K126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" t="s">
+        <v>205</v>
+      </c>
+      <c r="M126" t="s">
+        <v>205</v>
+      </c>
+      <c r="N126" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6436,6 +7444,30 @@
       <c r="F129" t="s">
         <v>205</v>
       </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6676,6 +7708,30 @@
       <c r="F135" t="s">
         <v>205</v>
       </c>
+      <c r="G135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J135" t="s">
+        <v>205</v>
+      </c>
+      <c r="K135" t="s">
+        <v>205</v>
+      </c>
+      <c r="L135" t="s">
+        <v>205</v>
+      </c>
+      <c r="M135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N135" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6828,6 +7884,30 @@
       <c r="F139" t="s">
         <v>205</v>
       </c>
+      <c r="G139" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139" t="s">
+        <v>205</v>
+      </c>
+      <c r="I139" t="s">
+        <v>205</v>
+      </c>
+      <c r="J139" t="s">
+        <v>205</v>
+      </c>
+      <c r="K139" t="s">
+        <v>205</v>
+      </c>
+      <c r="L139" t="s">
+        <v>205</v>
+      </c>
+      <c r="M139" t="s">
+        <v>205</v>
+      </c>
+      <c r="N139" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6936,6 +8016,30 @@
       <c r="F142" t="s">
         <v>205</v>
       </c>
+      <c r="G142" t="s">
+        <v>205</v>
+      </c>
+      <c r="H142" t="s">
+        <v>205</v>
+      </c>
+      <c r="I142" t="s">
+        <v>205</v>
+      </c>
+      <c r="J142" t="s">
+        <v>205</v>
+      </c>
+      <c r="K142" t="s">
+        <v>205</v>
+      </c>
+      <c r="L142" t="s">
+        <v>205</v>
+      </c>
+      <c r="M142" t="s">
+        <v>205</v>
+      </c>
+      <c r="N142" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -7000,6 +8104,30 @@
       <c r="F144" t="s">
         <v>205</v>
       </c>
+      <c r="G144" t="s">
+        <v>205</v>
+      </c>
+      <c r="H144" t="s">
+        <v>205</v>
+      </c>
+      <c r="I144" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144" t="s">
+        <v>205</v>
+      </c>
+      <c r="K144" t="s">
+        <v>205</v>
+      </c>
+      <c r="L144" t="s">
+        <v>205</v>
+      </c>
+      <c r="M144" t="s">
+        <v>205</v>
+      </c>
+      <c r="N144" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7196,6 +8324,30 @@
       <c r="F149" t="s">
         <v>205</v>
       </c>
+      <c r="G149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H149" t="s">
+        <v>205</v>
+      </c>
+      <c r="I149" t="s">
+        <v>205</v>
+      </c>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+      <c r="K149" t="s">
+        <v>205</v>
+      </c>
+      <c r="L149" t="s">
+        <v>205</v>
+      </c>
+      <c r="M149" t="s">
+        <v>205</v>
+      </c>
+      <c r="N149" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
@@ -7436,6 +8588,30 @@
       <c r="F155" t="s">
         <v>205</v>
       </c>
+      <c r="G155" t="s">
+        <v>205</v>
+      </c>
+      <c r="H155" t="s">
+        <v>205</v>
+      </c>
+      <c r="I155" t="s">
+        <v>205</v>
+      </c>
+      <c r="J155" t="s">
+        <v>205</v>
+      </c>
+      <c r="K155" t="s">
+        <v>205</v>
+      </c>
+      <c r="L155" t="s">
+        <v>205</v>
+      </c>
+      <c r="M155" t="s">
+        <v>205</v>
+      </c>
+      <c r="N155" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7456,6 +8632,30 @@
       <c r="F156" t="s">
         <v>205</v>
       </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156" t="s">
+        <v>205</v>
+      </c>
+      <c r="I156" t="s">
+        <v>205</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+      <c r="K156" t="s">
+        <v>205</v>
+      </c>
+      <c r="L156" t="s">
+        <v>205</v>
+      </c>
+      <c r="M156" t="s">
+        <v>205</v>
+      </c>
+      <c r="N156" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7476,6 +8676,30 @@
       <c r="F157" t="s">
         <v>205</v>
       </c>
+      <c r="G157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H157" t="s">
+        <v>205</v>
+      </c>
+      <c r="I157" t="s">
+        <v>205</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+      <c r="K157" t="s">
+        <v>205</v>
+      </c>
+      <c r="L157" t="s">
+        <v>205</v>
+      </c>
+      <c r="M157" t="s">
+        <v>205</v>
+      </c>
+      <c r="N157" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7540,6 +8764,30 @@
       <c r="F159" t="s">
         <v>205</v>
       </c>
+      <c r="G159" t="s">
+        <v>205</v>
+      </c>
+      <c r="H159" t="s">
+        <v>205</v>
+      </c>
+      <c r="I159" t="s">
+        <v>205</v>
+      </c>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+      <c r="K159" t="s">
+        <v>205</v>
+      </c>
+      <c r="L159" t="s">
+        <v>205</v>
+      </c>
+      <c r="M159" t="s">
+        <v>205</v>
+      </c>
+      <c r="N159" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7560,6 +8808,30 @@
       <c r="F160" t="s">
         <v>205</v>
       </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160" t="s">
+        <v>205</v>
+      </c>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+      <c r="J160" t="s">
+        <v>205</v>
+      </c>
+      <c r="K160" t="s">
+        <v>205</v>
+      </c>
+      <c r="L160" t="s">
+        <v>205</v>
+      </c>
+      <c r="M160" t="s">
+        <v>205</v>
+      </c>
+      <c r="N160" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7624,6 +8896,30 @@
       <c r="F162" t="s">
         <v>205</v>
       </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H162" t="s">
+        <v>205</v>
+      </c>
+      <c r="I162" t="s">
+        <v>205</v>
+      </c>
+      <c r="J162" t="s">
+        <v>205</v>
+      </c>
+      <c r="K162" t="s">
+        <v>205</v>
+      </c>
+      <c r="L162" t="s">
+        <v>205</v>
+      </c>
+      <c r="M162" t="s">
+        <v>205</v>
+      </c>
+      <c r="N162" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7644,6 +8940,30 @@
       <c r="F163" t="s">
         <v>205</v>
       </c>
+      <c r="G163" t="s">
+        <v>205</v>
+      </c>
+      <c r="H163" t="s">
+        <v>205</v>
+      </c>
+      <c r="I163" t="s">
+        <v>205</v>
+      </c>
+      <c r="J163" t="s">
+        <v>205</v>
+      </c>
+      <c r="K163" t="s">
+        <v>205</v>
+      </c>
+      <c r="L163" t="s">
+        <v>205</v>
+      </c>
+      <c r="M163" t="s">
+        <v>205</v>
+      </c>
+      <c r="N163" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7840,6 +9160,30 @@
       <c r="F168" t="s">
         <v>205</v>
       </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
+      <c r="H168" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" t="s">
+        <v>205</v>
+      </c>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+      <c r="K168" t="s">
+        <v>205</v>
+      </c>
+      <c r="L168" t="s">
+        <v>205</v>
+      </c>
+      <c r="M168" t="s">
+        <v>205</v>
+      </c>
+      <c r="N168" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7904,6 +9248,30 @@
       <c r="F170" t="s">
         <v>205</v>
       </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H170" t="s">
+        <v>205</v>
+      </c>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+      <c r="J170" t="s">
+        <v>205</v>
+      </c>
+      <c r="K170" t="s">
+        <v>205</v>
+      </c>
+      <c r="L170" t="s">
+        <v>205</v>
+      </c>
+      <c r="M170" t="s">
+        <v>205</v>
+      </c>
+      <c r="N170" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7968,6 +9336,30 @@
       <c r="F172" t="s">
         <v>205</v>
       </c>
+      <c r="G172" t="s">
+        <v>205</v>
+      </c>
+      <c r="H172" t="s">
+        <v>205</v>
+      </c>
+      <c r="I172" t="s">
+        <v>205</v>
+      </c>
+      <c r="J172" t="s">
+        <v>205</v>
+      </c>
+      <c r="K172" t="s">
+        <v>205</v>
+      </c>
+      <c r="L172" t="s">
+        <v>205</v>
+      </c>
+      <c r="M172" t="s">
+        <v>205</v>
+      </c>
+      <c r="N172" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>205</v>
       </c>
+      <c r="G178" t="s">
+        <v>205</v>
+      </c>
+      <c r="H178" t="s">
+        <v>205</v>
+      </c>
+      <c r="I178" t="s">
+        <v>205</v>
+      </c>
+      <c r="J178" t="s">
+        <v>205</v>
+      </c>
+      <c r="K178" t="s">
+        <v>205</v>
+      </c>
+      <c r="L178" t="s">
+        <v>205</v>
+      </c>
+      <c r="M178" t="s">
+        <v>205</v>
+      </c>
+      <c r="N178" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8316,6 +9732,30 @@
       <c r="F181" t="s">
         <v>205</v>
       </c>
+      <c r="G181" t="s">
+        <v>205</v>
+      </c>
+      <c r="H181" t="s">
+        <v>205</v>
+      </c>
+      <c r="I181" t="s">
+        <v>205</v>
+      </c>
+      <c r="J181" t="s">
+        <v>205</v>
+      </c>
+      <c r="K181" t="s">
+        <v>205</v>
+      </c>
+      <c r="L181" t="s">
+        <v>205</v>
+      </c>
+      <c r="M181" t="s">
+        <v>205</v>
+      </c>
+      <c r="N181" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8380,6 +9820,30 @@
       <c r="F183" t="s">
         <v>205</v>
       </c>
+      <c r="G183" t="s">
+        <v>205</v>
+      </c>
+      <c r="H183" t="s">
+        <v>205</v>
+      </c>
+      <c r="I183" t="s">
+        <v>205</v>
+      </c>
+      <c r="J183" t="s">
+        <v>205</v>
+      </c>
+      <c r="K183" t="s">
+        <v>205</v>
+      </c>
+      <c r="L183" t="s">
+        <v>205</v>
+      </c>
+      <c r="M183" t="s">
+        <v>205</v>
+      </c>
+      <c r="N183" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>205</v>
       </c>
+      <c r="G186" t="s">
+        <v>205</v>
+      </c>
+      <c r="H186" t="s">
+        <v>205</v>
+      </c>
+      <c r="I186" t="s">
+        <v>205</v>
+      </c>
+      <c r="J186" t="s">
+        <v>205</v>
+      </c>
+      <c r="K186" t="s">
+        <v>205</v>
+      </c>
+      <c r="L186" t="s">
+        <v>205</v>
+      </c>
+      <c r="M186" t="s">
+        <v>205</v>
+      </c>
+      <c r="N186" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>205</v>
       </c>
+      <c r="G187" t="s">
+        <v>205</v>
+      </c>
+      <c r="H187" t="s">
+        <v>205</v>
+      </c>
+      <c r="I187" t="s">
+        <v>205</v>
+      </c>
+      <c r="J187" t="s">
+        <v>205</v>
+      </c>
+      <c r="K187" t="s">
+        <v>205</v>
+      </c>
+      <c r="L187" t="s">
+        <v>205</v>
+      </c>
+      <c r="M187" t="s">
+        <v>205</v>
+      </c>
+      <c r="N187" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8570,6 +10082,30 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
+        <v>205</v>
+      </c>
+      <c r="G189" t="s">
+        <v>205</v>
+      </c>
+      <c r="H189" t="s">
+        <v>205</v>
+      </c>
+      <c r="I189" t="s">
+        <v>205</v>
+      </c>
+      <c r="J189" t="s">
+        <v>205</v>
+      </c>
+      <c r="K189" t="s">
+        <v>205</v>
+      </c>
+      <c r="L189" t="s">
+        <v>205</v>
+      </c>
+      <c r="M189" t="s">
+        <v>205</v>
+      </c>
+      <c r="N189" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/09_retrieval_2.xlsx
+++ b/sequences/09_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
     <t>lohnen</t>
   </si>
   <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>hacken</t>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>schalten</t>
   </si>
   <si>
     <t>filmen</t>
   </si>
   <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>wenden</t>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
   </si>
   <si>
     <t>rufen</t>
   </si>
   <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>parken</t>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
   </si>
   <si>
     <t>bergen</t>
   </si>
   <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>fliehen</t>
+    <t>kämpfen</t>
   </si>
   <si>
     <t>beten</t>
   </si>
   <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>bomben</t>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>sprechen</t>
   </si>
   <si>
     <t>münzen</t>
   </si>
   <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>legen</t>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>jubeln</t>
   </si>
   <si>
     <t>lügen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>fesseln</t>
   </si>
   <si>
     <t>N/A</t>
